--- a/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5419_2023-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8684</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4640</v>
+        <v>5129</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14290</v>
+        <v>13904</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02133287832767016</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01139915149614703</v>
+        <v>0.01259889878704535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03510429835369429</v>
+        <v>0.03415486764813974</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -762,19 +762,19 @@
         <v>16745</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10980</v>
+        <v>11577</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23442</v>
+        <v>23804</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03816553510134837</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02502634641958698</v>
+        <v>0.02638701343784968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05342992925507715</v>
+        <v>0.05425531682070423</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -783,19 +783,19 @@
         <v>25429</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17788</v>
+        <v>19045</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33717</v>
+        <v>35170</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03006418959459636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0210311198995987</v>
+        <v>0.02251674637404076</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03986345256572171</v>
+        <v>0.04158124100841663</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>2258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5498</v>
+        <v>6874</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005546933193420614</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001486540215423873</v>
+        <v>0.001509143178042766</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01350572807899252</v>
+        <v>0.01688531085022187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -833,19 +833,19 @@
         <v>4082</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1931</v>
+        <v>1758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8421</v>
+        <v>8436</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009304731302342835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.00440109695433664</v>
+        <v>0.004007941195585809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01919411937165772</v>
+        <v>0.01922877656506136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>6340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3145</v>
+        <v>3311</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11337</v>
+        <v>10883</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.007496150444649393</v>
+        <v>0.007496150444649394</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003718616845525734</v>
+        <v>0.003914790323199093</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01340340270535222</v>
+        <v>0.01286650066402558</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>6038</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2556</v>
+        <v>2575</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12098</v>
+        <v>11773</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0148323635188799</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.006279259932638498</v>
+        <v>0.006325710041460686</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0297181930944703</v>
+        <v>0.02892158799128832</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -904,19 +904,19 @@
         <v>15572</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10258</v>
+        <v>9825</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21880</v>
+        <v>22265</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03549284685655355</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02338039476374578</v>
+        <v>0.02239328399871016</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04987062326010026</v>
+        <v>0.05074916711687705</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -925,19 +925,19 @@
         <v>21610</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15514</v>
+        <v>14664</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30122</v>
+        <v>30008</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0255492166794848</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01834237156623305</v>
+        <v>0.01733683464212174</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03561262501339726</v>
+        <v>0.0354777565829074</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>6982</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3996</v>
+        <v>3479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13040</v>
+        <v>11697</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01715246781817597</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00981545615754406</v>
+        <v>0.00854526674594577</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03203183484007746</v>
+        <v>0.02873379562667779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -975,19 +975,19 @@
         <v>11783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7563</v>
+        <v>7410</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17194</v>
+        <v>17678</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02685716060122674</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01723731538958899</v>
+        <v>0.01689000913363903</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03919016348769568</v>
+        <v>0.04029239056934179</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>34</v>
@@ -996,19 +996,19 @@
         <v>18766</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13264</v>
+        <v>13105</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25822</v>
+        <v>26793</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02218641430553089</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0156821594059168</v>
+        <v>0.01549452634096231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03052915607884337</v>
+        <v>0.03167670060127632</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>383117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>374407</v>
+        <v>374300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>390174</v>
+        <v>389650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9411353571418534</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9197374936517383</v>
+        <v>0.9194752549743808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9584703089856232</v>
+        <v>0.9571830089432344</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>739</v>
@@ -1046,19 +1046,19 @@
         <v>390552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>380175</v>
+        <v>380871</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399498</v>
+        <v>400264</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8901797261385285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8665281295634861</v>
+        <v>0.8681143417564582</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.910570950975675</v>
+        <v>0.9123166885464398</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1273</v>
@@ -1067,19 +1067,19 @@
         <v>773669</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>760888</v>
+        <v>760816</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>786257</v>
+        <v>785867</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9147040289757384</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8995929484445604</v>
+        <v>0.8995069104595883</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9295864955325879</v>
+        <v>0.9291247403048248</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>31433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23351</v>
+        <v>23280</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41449</v>
+        <v>40560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1019275319412206</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07571988310150382</v>
+        <v>0.07549068540853758</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1344085558263393</v>
+        <v>0.1315246347597748</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>163</v>
@@ -1192,19 +1192,19 @@
         <v>79365</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>67968</v>
+        <v>68084</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>91592</v>
+        <v>93422</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1716198645297353</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1469744425997754</v>
+        <v>0.1472247334496284</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1980598586474329</v>
+        <v>0.2020166276125434</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>215</v>
@@ -1213,19 +1213,19 @@
         <v>110798</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96297</v>
+        <v>97167</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126164</v>
+        <v>126083</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1437383846851278</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1249266513548614</v>
+        <v>0.1260549778606131</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1636723252485087</v>
+        <v>0.1635681307591809</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>9990</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5639</v>
+        <v>5378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16208</v>
+        <v>15306</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.03239487564732399</v>
+        <v>0.03239487564732398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.018285894225243</v>
+        <v>0.01743989372231095</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05255755515170135</v>
+        <v>0.0496328633695396</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>52</v>
@@ -1263,19 +1263,19 @@
         <v>28666</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21013</v>
+        <v>21849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37434</v>
+        <v>38472</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.06198696257830764</v>
+        <v>0.06198696257830763</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04543811859107596</v>
+        <v>0.04724697923565552</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08094816959400346</v>
+        <v>0.08319272009043345</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>67</v>
@@ -1284,19 +1284,19 @@
         <v>38656</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29670</v>
+        <v>30093</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48658</v>
+        <v>48915</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0501481971835895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0384908268032601</v>
+        <v>0.03903963100950204</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06312392237447852</v>
+        <v>0.06345702376174148</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>18721</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12563</v>
+        <v>12357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>26343</v>
+        <v>26589</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06070564552824004</v>
+        <v>0.06070564552824003</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04073989104330455</v>
+        <v>0.04007085367680418</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08542265138521554</v>
+        <v>0.08621987631298215</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1334,19 +1334,19 @@
         <v>55895</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45567</v>
+        <v>46056</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66688</v>
+        <v>67309</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1208676224559987</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09853402279309484</v>
+        <v>0.09959111698130375</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1442057811325744</v>
+        <v>0.1455498947829802</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -1355,19 +1355,19 @@
         <v>74616</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>62728</v>
+        <v>62352</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>88039</v>
+        <v>88209</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.09679890664723148</v>
+        <v>0.09679890664723151</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08137708291022921</v>
+        <v>0.08088924301287291</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1142127354373877</v>
+        <v>0.1144336403473018</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>23469</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16249</v>
+        <v>16322</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31888</v>
+        <v>32600</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.076104872295726</v>
+        <v>0.07610487229572599</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.052689579803278</v>
+        <v>0.05292647772284711</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1034038110508645</v>
+        <v>0.1057120961660499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>131</v>
@@ -1405,19 +1405,19 @@
         <v>69520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57800</v>
+        <v>59590</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81611</v>
+        <v>81169</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1503294161515107</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1249867209926943</v>
+        <v>0.1288582814425663</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1764766392661254</v>
+        <v>0.175519335186082</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -1426,19 +1426,19 @@
         <v>92989</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80105</v>
+        <v>78729</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108062</v>
+        <v>106469</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.120634756113237</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.103920099069837</v>
+        <v>0.1021352665982601</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1401889390671223</v>
+        <v>0.1381226805024537</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>224769</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211880</v>
+        <v>211089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>237115</v>
+        <v>237124</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7288670745874896</v>
+        <v>0.7288670745874893</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6870711362313683</v>
+        <v>0.6845052394874072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7689001904154138</v>
+        <v>0.7689290519087504</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>434</v>
@@ -1476,19 +1476,19 @@
         <v>229002</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>214240</v>
+        <v>213694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>244966</v>
+        <v>245672</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.4951961342844475</v>
+        <v>0.4951961342844476</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.463273594977997</v>
+        <v>0.4620920858226717</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5297148833725741</v>
+        <v>0.531241493303524</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>760</v>
@@ -1497,19 +1497,19 @@
         <v>453772</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>432995</v>
+        <v>431826</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>475036</v>
+        <v>472784</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5886797553708143</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5617258346486272</v>
+        <v>0.5602091318327872</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6162649477949282</v>
+        <v>0.6133444776168997</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>40117</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31142</v>
+        <v>30997</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51785</v>
+        <v>50895</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05607121497952272</v>
+        <v>0.05607121497952273</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04352701418895177</v>
+        <v>0.04332449491274955</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07237916767266689</v>
+        <v>0.07113651747250635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>193</v>
@@ -1622,19 +1622,19 @@
         <v>96110</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>83985</v>
+        <v>82232</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>109368</v>
+        <v>109377</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1066485130887212</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09319428302605955</v>
+        <v>0.09124947881263253</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1213608040302786</v>
+        <v>0.1213706245410814</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>259</v>
@@ -1643,19 +1643,19 @@
         <v>136227</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>119674</v>
+        <v>121962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153609</v>
+        <v>154614</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08426502548644629</v>
+        <v>0.08426502548644631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07402596995579995</v>
+        <v>0.07544143701378893</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09501728844429935</v>
+        <v>0.09563883779534581</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>12248</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7207</v>
+        <v>7287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>19548</v>
+        <v>18535</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01711907627682302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01007312448213735</v>
+        <v>0.01018441918531691</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02732208343897647</v>
+        <v>0.02590587573299586</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>59</v>
@@ -1693,19 +1693,19 @@
         <v>32748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24020</v>
+        <v>25302</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42685</v>
+        <v>42816</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.03633896915922393</v>
+        <v>0.03633896915922394</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0266533883097872</v>
+        <v>0.0280761210230307</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04736536993762654</v>
+        <v>0.04751089176817322</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>77</v>
@@ -1714,19 +1714,19 @@
         <v>44996</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35795</v>
+        <v>35750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>56886</v>
+        <v>56155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02783301391579763</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02214168282002666</v>
+        <v>0.02211392238476771</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03518766784012534</v>
+        <v>0.03473557686944564</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>24758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>17355</v>
+        <v>17617</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34741</v>
+        <v>34440</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03460490974021632</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02425664242014961</v>
+        <v>0.02462271890722197</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04855797245406063</v>
+        <v>0.04813707882948128</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>125</v>
@@ -1764,19 +1764,19 @@
         <v>71467</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>59682</v>
+        <v>59849</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84177</v>
+        <v>86004</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07930348157403651</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06622586703742656</v>
+        <v>0.06641214288225732</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09340729025369081</v>
+        <v>0.09543433085661163</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -1785,19 +1785,19 @@
         <v>96225</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82317</v>
+        <v>83469</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>112387</v>
+        <v>112764</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.05952168290378002</v>
+        <v>0.05952168290378004</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05091854833758688</v>
+        <v>0.0516308196799549</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06951877941542706</v>
+        <v>0.06975219282048215</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>30452</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22898</v>
+        <v>22365</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40022</v>
+        <v>39437</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04256244703338531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03200436059970298</v>
+        <v>0.03125998725481845</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05593878663179297</v>
+        <v>0.05512133869057391</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -1835,19 +1835,19 @@
         <v>81303</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70181</v>
+        <v>70021</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>95532</v>
+        <v>93975</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09021777089479396</v>
+        <v>0.09021777089479398</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07787711458309395</v>
+        <v>0.0776995079101037</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1060076647996925</v>
+        <v>0.1042794497529699</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>201</v>
@@ -1856,19 +1856,19 @@
         <v>111754</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96650</v>
+        <v>95488</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128437</v>
+        <v>127573</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06912743213191259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05978405526715899</v>
+        <v>0.0590658398880681</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07944667883125571</v>
+        <v>0.07891237083774766</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>607887</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>591052</v>
+        <v>590920</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>622347</v>
+        <v>623384</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8496423519700527</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8261130136523551</v>
+        <v>0.8259283041068637</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8698528279460516</v>
+        <v>0.8713025159421206</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1173</v>
@@ -1906,19 +1906,19 @@
         <v>619555</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>599530</v>
+        <v>598183</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>641040</v>
+        <v>640793</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6874912652832246</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6652702503495013</v>
+        <v>0.6637765383644363</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7113322631217621</v>
+        <v>0.7110582020762439</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2033</v>
@@ -1927,19 +1927,19 @@
         <v>1227442</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1200324</v>
+        <v>1202043</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1252583</v>
+        <v>1254556</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7592528455620634</v>
+        <v>0.7592528455620635</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7424788807474891</v>
+        <v>0.7435419984301367</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7748041922890592</v>
+        <v>0.7760250475289358</v>
       </c>
     </row>
     <row r="21">
